--- a/BDD - looping/Liste_des_rubriques_BDD_Quizzeo.xlsx
+++ b/BDD - looping/Liste_des_rubriques_BDD_Quizzeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoborges/Desktop/IPSSI/QUIZZEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A8F14-B5FE-0E41-A381-0825261C1ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B39EC-2EFB-834D-9A11-5AC56240A25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{0FEACC3F-2C27-2D47-BD2F-08B96097C669}"/>
+    <workbookView xWindow="32720" yWindow="1540" windowWidth="30240" windowHeight="20660" xr2:uid="{0FEACC3F-2C27-2D47-BD2F-08B96097C669}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Liste des rubriques</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>bonne_reponse_choix</t>
+  </si>
+  <si>
+    <t>score global utilisateur</t>
+  </si>
+  <si>
+    <t>global_score_utilisateur</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>valeur score Quizz</t>
+  </si>
+  <si>
+    <t>valeur_score_quizz</t>
   </si>
 </sst>
 </file>
@@ -558,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692A8272-194C-7046-A141-6012042AB201}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,29 +733,29 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -754,11 +769,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -772,11 +787,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
@@ -790,17 +805,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -808,17 +823,17 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
@@ -826,11 +841,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -844,11 +859,11 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -862,11 +877,11 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
@@ -880,17 +895,17 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -898,17 +913,17 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -916,11 +931,11 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
@@ -930,10 +945,46 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BDD - looping/Liste_des_rubriques_BDD_Quizzeo.xlsx
+++ b/BDD - looping/Liste_des_rubriques_BDD_Quizzeo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoborges/Desktop/IPSSI/QUIZZEO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoborges/Desktop/IPSSI/QUIZZEO/BDD - looping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B39EC-2EFB-834D-9A11-5AC56240A25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA38314C-C4BC-594B-8419-732CDAB8684A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32720" yWindow="1540" windowWidth="30240" windowHeight="20660" xr2:uid="{0FEACC3F-2C27-2D47-BD2F-08B96097C669}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Liste des rubriques</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>valeur_score_quizz</t>
+  </si>
+  <si>
+    <t>P12 * n</t>
   </si>
 </sst>
 </file>
@@ -245,18 +248,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,418 +573,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692A8272-194C-7046-A141-6012042AB201}">
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="11.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="23" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
